--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H2">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I2">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J2">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N2">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O2">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P2">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q2">
-        <v>48.789084446095</v>
+        <v>63.11055632971524</v>
       </c>
       <c r="R2">
-        <v>195.15633778438</v>
+        <v>252.442225318861</v>
       </c>
       <c r="S2">
-        <v>0.009822975787673096</v>
+        <v>0.01842484619968009</v>
       </c>
       <c r="T2">
-        <v>0.00602990639082691</v>
+        <v>0.01086578651408473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H3">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I3">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J3">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>61.099948</v>
       </c>
       <c r="O3">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P3">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q3">
-        <v>22.30748918155333</v>
+        <v>55.71135010271133</v>
       </c>
       <c r="R3">
-        <v>133.84493508932</v>
+        <v>334.268100616268</v>
       </c>
       <c r="S3">
-        <v>0.004491289980165152</v>
+        <v>0.01626468085396482</v>
       </c>
       <c r="T3">
-        <v>0.004135517394093569</v>
+        <v>0.01438779037531165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H4">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I4">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J4">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N4">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O4">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P4">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q4">
-        <v>27.71352649029999</v>
+        <v>68.03742568234084</v>
       </c>
       <c r="R4">
-        <v>166.2811589418</v>
+        <v>408.224554094045</v>
       </c>
       <c r="S4">
-        <v>0.005579717323985214</v>
+        <v>0.0198632237920719</v>
       </c>
       <c r="T4">
-        <v>0.005137726165393928</v>
+        <v>0.01757107333763437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H5">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I5">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J5">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N5">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O5">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P5">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q5">
-        <v>16.147105046685</v>
+        <v>30.978522274839</v>
       </c>
       <c r="R5">
-        <v>64.58842018674001</v>
+        <v>123.914089099356</v>
       </c>
       <c r="S5">
-        <v>0.003250985824295294</v>
+        <v>0.009044041783205234</v>
       </c>
       <c r="T5">
-        <v>0.001995641710020904</v>
+        <v>0.005333592811346047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H6">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I6">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J6">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N6">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O6">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P6">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q6">
-        <v>26.96045020637833</v>
+        <v>87.64865458713017</v>
       </c>
       <c r="R6">
-        <v>161.76270123827</v>
+        <v>525.891927522781</v>
       </c>
       <c r="S6">
-        <v>0.005428096317212553</v>
+        <v>0.02558863483851727</v>
       </c>
       <c r="T6">
-        <v>0.004998115649576096</v>
+        <v>0.02263579084967021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H7">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I7">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J7">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N7">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O7">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P7">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q7">
-        <v>40.32232850226833</v>
+        <v>70.99745429501633</v>
       </c>
       <c r="R7">
-        <v>241.93397101361</v>
+        <v>425.984725770098</v>
       </c>
       <c r="S7">
-        <v>0.008118317059587387</v>
+        <v>0.02072739097909953</v>
       </c>
       <c r="T7">
-        <v>0.00747523352065004</v>
+        <v>0.01833551848401087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J8">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N8">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O8">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P8">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q8">
-        <v>491.2073265322837</v>
+        <v>254.4199622236052</v>
       </c>
       <c r="R8">
-        <v>2947.243959193702</v>
+        <v>1526.519773341631</v>
       </c>
       <c r="S8">
-        <v>0.09889748352595802</v>
+        <v>0.07427677629092917</v>
       </c>
       <c r="T8">
-        <v>0.09106342836020628</v>
+        <v>0.06570548150456311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J9">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>61.099948</v>
       </c>
       <c r="O9">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P9">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q9">
         <v>224.5912635361142</v>
@@ -1013,10 +1013,10 @@
         <v>2021.321371825028</v>
       </c>
       <c r="S9">
-        <v>0.04521819929364825</v>
+        <v>0.06556842038954332</v>
       </c>
       <c r="T9">
-        <v>0.06245443420520207</v>
+        <v>0.08700306169011841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J10">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N10">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O10">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P10">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q10">
-        <v>279.0191168912467</v>
+        <v>274.2818361710772</v>
       </c>
       <c r="R10">
-        <v>2511.17205202122</v>
+        <v>2468.536525539695</v>
       </c>
       <c r="S10">
-        <v>0.05617645956338527</v>
+        <v>0.08007536204269664</v>
       </c>
       <c r="T10">
-        <v>0.07758975484402962</v>
+        <v>0.1062523944037296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J11">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N11">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O11">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P11">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q11">
-        <v>162.568664513091</v>
+        <v>124.884883374046</v>
       </c>
       <c r="R11">
-        <v>975.4119870785462</v>
+        <v>749.309300244276</v>
       </c>
       <c r="S11">
-        <v>0.03273084693997076</v>
+        <v>0.03645958620314644</v>
       </c>
       <c r="T11">
-        <v>0.03013810897124171</v>
+        <v>0.03225227031329061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>33.082211</v>
       </c>
       <c r="I12">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J12">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N12">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O12">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P12">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q12">
-        <v>271.4371630116092</v>
+        <v>353.3413217355501</v>
       </c>
       <c r="R12">
-        <v>2442.934467104484</v>
+        <v>3180.071895619951</v>
       </c>
       <c r="S12">
-        <v>0.05464994292081087</v>
+        <v>0.1031564271903569</v>
       </c>
       <c r="T12">
-        <v>0.07548136188044247</v>
+        <v>0.1368787740387007</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>33.082211</v>
       </c>
       <c r="I13">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J13">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N13">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O13">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P13">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q13">
-        <v>405.9642317133299</v>
+        <v>286.2147109802175</v>
       </c>
       <c r="R13">
-        <v>3653.678085419969</v>
+        <v>2575.932398821958</v>
       </c>
       <c r="S13">
-        <v>0.08173502052876759</v>
+        <v>0.08355911176484775</v>
       </c>
       <c r="T13">
-        <v>0.1128907064327042</v>
+        <v>0.11087499916054</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H14">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I14">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J14">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N14">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O14">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P14">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q14">
-        <v>13.09677895417733</v>
+        <v>7.708486546302334</v>
       </c>
       <c r="R14">
-        <v>78.58067372506399</v>
+        <v>46.250919277814</v>
       </c>
       <c r="S14">
-        <v>0.002636846828013953</v>
+        <v>0.002250458359230954</v>
       </c>
       <c r="T14">
-        <v>0.002427971912517476</v>
+        <v>0.001990762893640778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H15">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I15">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J15">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>61.099948</v>
       </c>
       <c r="O15">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P15">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q15">
-        <v>5.988147925921776</v>
+        <v>6.804728364292445</v>
       </c>
       <c r="R15">
-        <v>53.893331333296</v>
+        <v>61.242555278632</v>
       </c>
       <c r="S15">
-        <v>0.00120562688882436</v>
+        <v>0.00198661017798153</v>
       </c>
       <c r="T15">
-        <v>0.001665186725263523</v>
+        <v>0.00263604288226392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H16">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I16">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J16">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N16">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O16">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P16">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q16">
-        <v>7.439326533893332</v>
+        <v>8.310267109314445</v>
       </c>
       <c r="R16">
-        <v>66.95393880503998</v>
+        <v>74.79240398383</v>
       </c>
       <c r="S16">
-        <v>0.00149780069145932</v>
+        <v>0.002426145517834473</v>
       </c>
       <c r="T16">
-        <v>0.00206873109054549</v>
+        <v>0.003219264501162511</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H17">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I17">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J17">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N17">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O17">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P17">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q17">
-        <v>4.334474974212</v>
+        <v>3.783796817324</v>
       </c>
       <c r="R17">
-        <v>26.006849845272</v>
+        <v>22.702780903944</v>
       </c>
       <c r="S17">
-        <v>0.0008726837817791286</v>
+        <v>0.001104662650188181</v>
       </c>
       <c r="T17">
-        <v>0.0008035550977624104</v>
+        <v>0.0009771882269961289</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H18">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I18">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J18">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N18">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O18">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P18">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q18">
-        <v>7.237173250261778</v>
+        <v>10.70563331998822</v>
       </c>
       <c r="R18">
-        <v>65.13455925235601</v>
+        <v>96.35069987989401</v>
       </c>
       <c r="S18">
-        <v>0.001457100054563677</v>
+        <v>0.003125462028261026</v>
       </c>
       <c r="T18">
-        <v>0.002012516219347251</v>
+        <v>0.004147191041653987</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H19">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I19">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J19">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N19">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O19">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P19">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q19">
-        <v>10.82399125352311</v>
+        <v>8.671812658339112</v>
       </c>
       <c r="R19">
-        <v>97.41592128170799</v>
+        <v>78.046313925052</v>
       </c>
       <c r="S19">
-        <v>0.002179253929776353</v>
+        <v>0.002531697132688832</v>
       </c>
       <c r="T19">
-        <v>0.00300994009712288</v>
+        <v>0.003359321461572828</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H20">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I20">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J20">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N20">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O20">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P20">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q20">
-        <v>662.8569259369469</v>
+        <v>243.2983346800327</v>
       </c>
       <c r="R20">
-        <v>2651.427703747788</v>
+        <v>973.1933387201309</v>
       </c>
       <c r="S20">
-        <v>0.1334566452330957</v>
+        <v>0.07102986659946817</v>
       </c>
       <c r="T20">
-        <v>0.0819233494395074</v>
+        <v>0.04188883631534137</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H21">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I21">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J21">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>61.099948</v>
       </c>
       <c r="O21">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P21">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q21">
-        <v>303.0733999649719</v>
+        <v>214.773557563838</v>
       </c>
       <c r="R21">
-        <v>1818.440399789832</v>
+        <v>1288.641345383028</v>
       </c>
       <c r="S21">
-        <v>0.06101944120375812</v>
+        <v>0.06270218480087525</v>
       </c>
       <c r="T21">
-        <v>0.05618585341637913</v>
+        <v>0.05546655966318149</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H22">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I22">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J22">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N22">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O22">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P22">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q22">
-        <v>376.5207563287799</v>
+        <v>262.2919734370325</v>
       </c>
       <c r="R22">
-        <v>2259.124537972679</v>
+        <v>1573.751840622195</v>
       </c>
       <c r="S22">
-        <v>0.07580700304102536</v>
+        <v>0.07657497494935653</v>
       </c>
       <c r="T22">
-        <v>0.06980203483960672</v>
+        <v>0.06773847562447016</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H23">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I23">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J23">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N23">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O23">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P23">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q23">
-        <v>219.377357364681</v>
+        <v>119.425708132569</v>
       </c>
       <c r="R23">
-        <v>877.5094294587241</v>
+        <v>477.7028325302759</v>
       </c>
       <c r="S23">
-        <v>0.04416845477266273</v>
+        <v>0.03486580427424344</v>
       </c>
       <c r="T23">
-        <v>0.02711313286965945</v>
+        <v>0.02056160370512998</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H24">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I24">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J24">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N24">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O24">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P24">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q24">
-        <v>366.289331898017</v>
+        <v>337.8954795864084</v>
       </c>
       <c r="R24">
-        <v>2197.735991388102</v>
+        <v>2027.372877518451</v>
       </c>
       <c r="S24">
-        <v>0.07374705386186352</v>
+        <v>0.09864708227925091</v>
       </c>
       <c r="T24">
-        <v>0.067905262264468</v>
+        <v>0.08726353463148331</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H25">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I25">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J25">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N25">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O25">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P25">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q25">
-        <v>547.826117687531</v>
+        <v>273.703218622493</v>
       </c>
       <c r="R25">
-        <v>3286.956706125186</v>
+        <v>1642.219311734958</v>
       </c>
       <c r="S25">
-        <v>0.1102968574014772</v>
+        <v>0.0799064372231244</v>
       </c>
       <c r="T25">
-        <v>0.101559813397062</v>
+        <v>0.07068549814944931</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H26">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I26">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J26">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N26">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O26">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P26">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q26">
-        <v>80.74265815815967</v>
+        <v>1.572368708259167</v>
       </c>
       <c r="R26">
-        <v>484.4559489489581</v>
+        <v>9.434212249554999</v>
       </c>
       <c r="S26">
-        <v>0.01625636523260172</v>
+        <v>0.000459046050355036</v>
       </c>
       <c r="T26">
-        <v>0.01496863517632194</v>
+        <v>0.0004060736515166852</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H27">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I27">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J27">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>61.099948</v>
       </c>
       <c r="O27">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P27">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q27">
-        <v>36.91739645869022</v>
+        <v>1.388021096482222</v>
       </c>
       <c r="R27">
-        <v>332.2565681282121</v>
+        <v>12.49218986834</v>
       </c>
       <c r="S27">
-        <v>0.007432783289022502</v>
+        <v>0.0004052265850896144</v>
       </c>
       <c r="T27">
-        <v>0.01026600532832338</v>
+        <v>0.0005376971623164232</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H28">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I28">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J28">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N28">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O28">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P28">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q28">
-        <v>45.86402514348666</v>
+        <v>1.695119253497222</v>
       </c>
       <c r="R28">
-        <v>412.77622629138</v>
+        <v>15.256073281475</v>
       </c>
       <c r="S28">
-        <v>0.009234057445932635</v>
+        <v>0.000494882526033086</v>
       </c>
       <c r="T28">
-        <v>0.01275388764286917</v>
+        <v>0.0006566620743037561</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H29">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I29">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J29">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N29">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O29">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P29">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q29">
-        <v>26.72237443743901</v>
+        <v>0.7718147626299999</v>
       </c>
       <c r="R29">
-        <v>160.334246624634</v>
+        <v>4.630888575779999</v>
       </c>
       <c r="S29">
-        <v>0.005380163207983859</v>
+        <v>0.0002253278868563019</v>
       </c>
       <c r="T29">
-        <v>0.004953979508769403</v>
+        <v>0.0001993257925506802</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H30">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I30">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J30">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N30">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O30">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P30">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q30">
-        <v>44.61773446904523</v>
+        <v>2.183723449906111</v>
       </c>
       <c r="R30">
-        <v>401.5596102214071</v>
+        <v>19.653511049155</v>
       </c>
       <c r="S30">
-        <v>0.008983134862358293</v>
+        <v>0.0006375283478242861</v>
       </c>
       <c r="T30">
-        <v>0.01240731860139378</v>
+        <v>0.0008459395215780028</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H31">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I31">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J31">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N31">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O31">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P31">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q31">
-        <v>66.7307456854779</v>
+        <v>1.768866921665555</v>
       </c>
       <c r="R31">
-        <v>600.5767111693011</v>
+        <v>15.91980229499</v>
       </c>
       <c r="S31">
-        <v>0.01343526951988715</v>
+        <v>0.0005164128297193301</v>
       </c>
       <c r="T31">
-        <v>0.0185565141771759</v>
+        <v>0.0006852307408766664</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H32">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I32">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J32">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N32">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O32">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P32">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q32">
-        <v>33.02230883829733</v>
+        <v>4.0776995113805</v>
       </c>
       <c r="R32">
-        <v>198.133853029784</v>
+        <v>24.466197068283</v>
       </c>
       <c r="S32">
-        <v>0.006648563789510108</v>
+        <v>0.001190466234415388</v>
       </c>
       <c r="T32">
-        <v>0.006121905136093809</v>
+        <v>0.001053090360852664</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H33">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I33">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J33">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>61.099948</v>
       </c>
       <c r="O33">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P33">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q33">
-        <v>15.09855750570844</v>
+        <v>3.599621969822667</v>
       </c>
       <c r="R33">
-        <v>135.887017551376</v>
+        <v>32.396597728404</v>
       </c>
       <c r="S33">
-        <v>0.003039875957730432</v>
+        <v>0.001050893622684555</v>
       </c>
       <c r="T33">
-        <v>0.004198613300833486</v>
+        <v>0.001394435951651468</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H34">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I34">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J34">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N34">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O34">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P34">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q34">
-        <v>18.75756926269333</v>
+        <v>4.396034413181667</v>
       </c>
       <c r="R34">
-        <v>168.81812336424</v>
+        <v>39.564309718635</v>
       </c>
       <c r="S34">
-        <v>0.003776565000038348</v>
+        <v>0.001283402693017245</v>
       </c>
       <c r="T34">
-        <v>0.005216112848387915</v>
+        <v>0.001702953388391384</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H35">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I35">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J35">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N35">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O35">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P35">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q35">
-        <v>10.928975112972</v>
+        <v>2.001584401878</v>
       </c>
       <c r="R35">
-        <v>65.57385067783201</v>
+        <v>12.009506411268</v>
       </c>
       <c r="S35">
-        <v>0.002200390909926131</v>
+        <v>0.000584353662921469</v>
       </c>
       <c r="T35">
-        <v>0.002026089368976856</v>
+        <v>0.0005169211792501984</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H36">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I36">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J36">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N36">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O36">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P36">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q36">
-        <v>18.24785857824845</v>
+        <v>5.663155211560333</v>
       </c>
       <c r="R36">
-        <v>164.230727204236</v>
+        <v>50.968396904043</v>
       </c>
       <c r="S36">
-        <v>0.003673942133287235</v>
+        <v>0.001653332973849681</v>
       </c>
       <c r="T36">
-        <v>0.005074372284199705</v>
+        <v>0.0021938157098122</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H37">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I37">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J37">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N37">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O37">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P37">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q37">
-        <v>27.29168624494978</v>
+        <v>4.587287793432667</v>
       </c>
       <c r="R37">
-        <v>245.625176204548</v>
+        <v>41.28559014089399</v>
       </c>
       <c r="S37">
-        <v>0.005494785897962669</v>
+        <v>0.001339238266671259</v>
       </c>
       <c r="T37">
-        <v>0.007589283733025321</v>
+        <v>0.001777041887553979</v>
       </c>
     </row>
   </sheetData>
